--- a/doc/需求管理.xlsx
+++ b/doc/需求管理.xlsx
@@ -39,7 +39,7 @@
     <t>支持笔记导出，常见格式</t>
   </si>
   <si>
-    <t>权限</t>
+    <t>权限、用户</t>
   </si>
   <si>
     <t>登陆、权限管理</t>
@@ -55,7 +55,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,9 +73,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -140,13 +140,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -210,20 +203,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -244,36 +237,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -286,55 +327,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,7 +357,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,73 +369,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,46 +542,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -603,100 +590,100 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -707,13 +694,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1063,7 +1050,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>

--- a/doc/需求管理.xlsx
+++ b/doc/需求管理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27765" windowHeight="13230"/>
+    <workbookView windowWidth="19770" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
   <si>
     <t>序号</t>
   </si>
@@ -44,16 +44,22 @@
   <si>
     <t>登陆、权限管理</t>
   </si>
+  <si>
+    <t>frontapi文档</t>
+  </si>
+  <si>
+    <t>做成html形式的frontapi文档</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -73,6 +79,42 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -80,15 +122,77 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -102,39 +206,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,75 +216,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,181 +243,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,17 +446,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -460,21 +469,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,26 +484,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,9 +505,41 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,10 +551,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -557,137 +563,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -701,6 +707,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1047,13 +1059,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="1"/>
     <col min="2" max="2" width="31.125" customWidth="1"/>
@@ -1115,6 +1127,20 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/需求管理.xlsx
+++ b/doc/需求管理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8370"/>
+    <workbookView windowWidth="27765" windowHeight="13230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
   <si>
     <t>序号</t>
   </si>
@@ -49,6 +49,18 @@
   </si>
   <si>
     <t>做成html形式的frontapi文档</t>
+  </si>
+  <si>
+    <t>标签功能页</t>
+  </si>
+  <si>
+    <t>附件功能页</t>
+  </si>
+  <si>
+    <t>声音、图片笔记</t>
+  </si>
+  <si>
+    <t>回收站</t>
   </si>
 </sst>
 </file>
@@ -56,9 +68,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -78,22 +90,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -102,27 +100,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,10 +113,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -160,63 +138,97 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,37 +255,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,91 +405,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,43 +429,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,24 +462,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -484,6 +478,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,11 +508,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,6 +544,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -551,10 +563,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -563,137 +575,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -709,11 +721,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1059,13 +1077,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="1"/>
     <col min="2" max="2" width="31.125" customWidth="1"/>
@@ -1141,6 +1159,157 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="5"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="5"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="5"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="5"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="5"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="5"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="5"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="5"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="5"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="5"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="5"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="5"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="5"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="5"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="5"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/需求管理.xlsx
+++ b/doc/需求管理.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>序号</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>回收站</t>
+  </si>
+  <si>
+    <t>加入日志信息</t>
   </si>
 </sst>
 </file>
@@ -68,8 +71,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -90,6 +93,96 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -98,26 +191,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -129,14 +221,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -144,97 +229,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -249,7 +252,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,78 +384,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -345,25 +396,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,48 +427,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,11 +455,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,62 +527,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,6 +543,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -563,10 +560,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -575,19 +572,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -596,116 +593,116 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -714,24 +711,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1077,10 +1056,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1105,13 +1084,13 @@
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="3">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2"/>
@@ -1119,13 +1098,13 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2"/>
@@ -1133,13 +1112,13 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="3">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="2"/>
@@ -1147,169 +1126,58 @@
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="5">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="5">
+    <row r="6" spans="1:2">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="5">
+    <row r="7" spans="1:2">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="5">
+    <row r="8" spans="1:2">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="5">
+    <row r="9" spans="1:2">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="5"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="5"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="5"/>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="5"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="5"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="5"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="5"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="5"/>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/需求管理.xlsx
+++ b/doc/需求管理.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>序号</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>加入日志信息</t>
+  </si>
+  <si>
+    <t>单元测试</t>
   </si>
 </sst>
 </file>
@@ -71,9 +74,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -94,12 +97,42 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -116,6 +149,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -123,8 +164,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,68 +188,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,17 +204,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,19 +255,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,157 +387,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,16 +458,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -494,16 +497,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -520,15 +523,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,6 +546,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -560,145 +563,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1056,10 +1059,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1177,6 +1180,14 @@
       </c>
       <c r="B10" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/doc/需求管理.xlsx
+++ b/doc/需求管理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27765" windowHeight="13230"/>
+    <workbookView windowWidth="19770" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>序号</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>单元测试</t>
+  </si>
+  <si>
+    <t>提供给第三方使用的api接口</t>
   </si>
 </sst>
 </file>
@@ -97,6 +100,57 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -104,15 +158,62 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,39 +227,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,75 +237,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,181 +258,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,17 +461,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,6 +484,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,6 +518,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -512,46 +544,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,10 +566,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -575,133 +578,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1059,10 +1062,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1188,6 +1191,14 @@
       </c>
       <c r="B11" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
